--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104787.2047734232</v>
+        <v>18928680.48665216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104787.2047734232</v>
+        <v>18928680.48665216</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>209809.3684018827</v>
+        <v>25383456.4131336</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209809.3684018827</v>
+        <v>25383456.4131336</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1605309873.667418</v>
+        <v>32970484.49933803</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17352.27004373992</v>
+        <v>837342.1943728891</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33943.03603066289</v>
+        <v>1526918.119150561</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50725.977051132</v>
+        <v>2216494.043928233</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67976.08260224191</v>
+        <v>2642429.002479262</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>84015.12326353343</v>
+        <v>3376495.919905189</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99711.6602033895</v>
+        <v>4064396.881599007</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115404.2182603713</v>
+        <v>4752297.843292824</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>131100.7552002274</v>
+        <v>5440198.804986641</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>148356.6432556228</v>
+        <v>5866492.6841985</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164391.5055273118</v>
+        <v>6600559.601624429</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>180076.3063722326</v>
+        <v>7290494.447062931</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195755.1252061397</v>
+        <v>7980070.371840594</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211433.9440400468</v>
+        <v>8669646.296618259</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227442.7035511935</v>
+        <v>9307917.028838472</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>247776.8436297519</v>
+        <v>9175193.564929858</v>
       </c>
     </row>
   </sheetData>
